--- a/契約書関連_ゆうきくん/受領書.xlsx
+++ b/契約書関連_ゆうきくん/受領書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\atsu0\OneDrive\デスクトップ\契約書関連_ゆうきくん\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\契約書関連_ゆうきくん\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF9A936-BEE8-48D8-AA17-FDEE764FBDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1FB4DA-D475-45A0-9DD7-C96579670E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{358C4EFD-EA12-4AD1-966D-1FB1E5B815B1}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" xr2:uid="{358C4EFD-EA12-4AD1-966D-1FB1E5B815B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -80,19 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2023年　　　2月　　　15日</t>
-    <rPh sb="4" eb="5">
-      <t>ネン</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ガツ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ニチ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>〒550－0002</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -150,6 +137,19 @@
   </si>
   <si>
     <t>造作譲渡及び物品譲渡</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2023年　　　7月　　　30日</t>
+    <rPh sb="4" eb="5">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ニチ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -587,71 +587,71 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.5" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="3" spans="2:9" ht="32.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="2:9" ht="33" x14ac:dyDescent="0.35">
       <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.35">
       <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B6" t="s">
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.5">
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.35">
       <c r="F11" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.35">
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.5">
-      <c r="F12" s="4" t="s">
-        <v>12</v>
-      </c>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.5">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.35">
       <c r="G13" s="1"/>
     </row>
-    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="2:9" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="D15" s="6">
-        <v>1500000</v>
+        <v>400000</v>
       </c>
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
     </row>
-    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="2" t="s">
         <v>0</v>
       </c>
@@ -662,28 +662,28 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="C19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5"/>
-    <row r="25" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
       <c r="D25" s="8"/>
@@ -692,7 +692,7 @@
       <c r="G25" s="8"/>
       <c r="H25" s="8"/>
     </row>
-    <row r="26" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="26" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
       <c r="D26" s="8"/>
@@ -701,7 +701,7 @@
       <c r="G26" s="8"/>
       <c r="H26" s="8"/>
     </row>
-    <row r="27" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="27" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
       <c r="D27" s="8"/>
@@ -710,7 +710,7 @@
       <c r="G27" s="8"/>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="28" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
@@ -719,7 +719,7 @@
       <c r="G28" s="8"/>
       <c r="H28" s="8"/>
     </row>
-    <row r="29" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="29" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
       <c r="D29" s="8"/>
@@ -728,7 +728,7 @@
       <c r="G29" s="8"/>
       <c r="H29" s="8"/>
     </row>
-    <row r="30" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="30" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
